--- a/src/main/java/com/example/demo/database/工商银行.xlsx
+++ b/src/main/java/com/example/demo/database/工商银行.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4B15AA-EB5E-44C9-B8E3-134FC28A4A68}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{BC4B15AA-EB5E-44C9-B8E3-134FC28A4A68}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="12648" windowWidth="21840" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工行" sheetId="1" r:id="rId1"/>
-    <sheet name="160平米，14万元" sheetId="4" r:id="rId2"/>
-    <sheet name="120平米，12万元" sheetId="5" r:id="rId3"/>
-    <sheet name="120平米，11万元" sheetId="6" r:id="rId4"/>
-    <sheet name="100平米，9万元" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="工行" r:id="rId1" sheetId="1"/>
+    <sheet name="160平米，14万元" r:id="rId2" sheetId="4"/>
+    <sheet name="120平米，12万元" r:id="rId3" sheetId="5"/>
+    <sheet name="120平米，11万元" r:id="rId4" sheetId="6"/>
+    <sheet name="100平米，9万元" r:id="rId5" sheetId="7"/>
+    <sheet name="Sheet3" r:id="rId6" sheetId="3" state="hidden"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F104" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment authorId="0" ref="F104" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F107" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment authorId="0" ref="F107" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F132" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment authorId="0" ref="F132" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F136" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment authorId="0" ref="F136" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="1778">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6558,12 +6558,43 @@
   <si>
     <t>房子面积(平米）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请面积（平米）</t>
+  </si>
+  <si>
+    <t>第二期缴款金额（万元）</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6663,41 +6694,41 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="5" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="5" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6714,10 +6745,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -6881,21 +6912,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -6912,7 +6943,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -6964,14 +6995,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M276"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
@@ -6980,15 +7011,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="4.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="1" width="7.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="7.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="20.21875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="20.77734375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="1" width="15.77734375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="1" width="17.44140625" collapsed="false"/>
+    <col min="9" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -7010,11 +7041,11 @@
       <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>1765</v>
+      <c r="G1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1768</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>3</v>
@@ -7042,8 +7073,12 @@
       <c r="F2" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
+      <c r="G2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1770</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="L2" s="16" t="s">
         <v>1110</v>
@@ -7068,8 +7103,12 @@
       <c r="F3" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
+      <c r="G3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1772</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="L3" s="16" t="s">
         <v>1111</v>
@@ -7097,8 +7136,12 @@
       <c r="F4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4"/>
+      <c r="G4" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1770</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="L4" s="16" t="s">
         <v>1112</v>
@@ -7126,8 +7169,12 @@
       <c r="F5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
+      <c r="G5" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1770</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="L5" s="16" t="s">
         <v>1113</v>
@@ -7155,8 +7202,12 @@
       <c r="F6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
+      <c r="G6" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1772</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="L6" s="16" t="s">
         <v>1114</v>
@@ -7181,8 +7232,12 @@
       <c r="F7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
+      <c r="G7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1770</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="L7" s="16" t="s">
         <v>1115</v>
@@ -7210,8 +7265,12 @@
       <c r="F8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4"/>
+      <c r="G8" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1772</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="L8" s="16" t="s">
         <v>1116</v>
@@ -7239,8 +7298,12 @@
       <c r="F9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4"/>
+      <c r="G9" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1774</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="L9" s="16" t="s">
         <v>1117</v>
@@ -7265,8 +7328,12 @@
       <c r="F10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4"/>
+      <c r="G10" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1770</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="L10" s="16" t="s">
         <v>1118</v>
@@ -7291,8 +7358,12 @@
       <c r="F11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4"/>
+      <c r="G11" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1770</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="L11" s="16" t="s">
         <v>1119</v>
@@ -7320,8 +7391,12 @@
       <c r="F12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
+      <c r="G12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1776</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="L12" s="16" t="s">
         <v>1120</v>
@@ -7349,8 +7424,12 @@
       <c r="F13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4"/>
+      <c r="G13" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1770</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="L13" s="16" t="s">
         <v>1121</v>
@@ -7375,8 +7454,12 @@
       <c r="F14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="4"/>
+      <c r="G14" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1770</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="L14" s="16" t="s">
         <v>1122</v>
@@ -7404,8 +7487,12 @@
       <c r="F15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="4"/>
+      <c r="G15" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1770</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="L15" s="16" t="s">
         <v>1123</v>
@@ -7433,8 +7520,12 @@
       <c r="F16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="4"/>
+      <c r="G16" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1770</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="L16" s="16" t="s">
         <v>1124</v>
@@ -7462,8 +7553,12 @@
       <c r="F17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="4"/>
+      <c r="G17" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1770</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="L17" s="16" t="s">
         <v>1125</v>
@@ -7488,8 +7583,12 @@
       <c r="F18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="4"/>
+      <c r="G18" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1770</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="L18" s="16" t="s">
         <v>1126</v>
@@ -7514,8 +7613,12 @@
       <c r="F19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
+      <c r="G19" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1774</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="L19" s="16" t="s">
         <v>1127</v>
@@ -7540,8 +7643,12 @@
       <c r="F20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="4"/>
+      <c r="G20" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1770</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="L20" s="16" t="s">
         <v>1128</v>
@@ -7566,8 +7673,12 @@
       <c r="F21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="4"/>
+      <c r="G21" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1770</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="L21" s="16" t="s">
         <v>1129</v>
@@ -7592,8 +7703,12 @@
       <c r="F22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="4"/>
+      <c r="G22" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1770</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="L22" s="16" t="s">
         <v>1130</v>
@@ -7618,8 +7733,12 @@
       <c r="F23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="4"/>
+      <c r="G23" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1772</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="L23" s="16" t="s">
         <v>1131</v>
@@ -7644,8 +7763,12 @@
       <c r="F24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="4"/>
+      <c r="G24" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1772</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="L24" s="16" t="s">
         <v>1132</v>
@@ -7670,8 +7793,12 @@
       <c r="F25" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="4"/>
+      <c r="G25" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1770</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="L25" s="16" t="s">
         <v>1133</v>
@@ -7696,8 +7823,12 @@
       <c r="F26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="4"/>
+      <c r="G26" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1776</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="L26" s="16" t="s">
         <v>1134</v>
@@ -7722,8 +7853,12 @@
       <c r="F27" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="4"/>
+      <c r="G27" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1774</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="L27" s="16" t="s">
         <v>1135</v>
@@ -7748,14 +7883,18 @@
       <c r="F28" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="4"/>
+      <c r="G28" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1774</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="L28" s="16" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -7774,8 +7913,12 @@
       <c r="F29" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="11"/>
+      <c r="G29" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1770</v>
+      </c>
       <c r="I29" s="11"/>
       <c r="L29" s="16" t="s">
         <v>1137</v>
@@ -7800,8 +7943,12 @@
       <c r="F30" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="4"/>
+      <c r="G30" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1774</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="L30" s="16" t="s">
         <v>1138</v>
@@ -7824,8 +7971,12 @@
       <c r="F31" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="4"/>
+      <c r="G31" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1772</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="L31" s="16" t="s">
         <v>1139</v>
@@ -7850,8 +8001,12 @@
       <c r="F32" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="4"/>
+      <c r="G32" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1774</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="L32" s="16" t="s">
         <v>1140</v>
@@ -7876,8 +8031,12 @@
       <c r="F33" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="4"/>
+      <c r="G33" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1770</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="L33" s="16" t="s">
         <v>1141</v>
@@ -7902,8 +8061,12 @@
       <c r="F34" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="4"/>
+      <c r="G34" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1776</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="L34" s="16" t="s">
         <v>1142</v>
@@ -7928,8 +8091,12 @@
       <c r="F35" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="4"/>
+      <c r="G35" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1772</v>
+      </c>
       <c r="I35" s="4"/>
       <c r="L35" s="16" t="s">
         <v>1143</v>
@@ -7954,18 +8121,18 @@
       <c r="F36" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>1108</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>1764</v>
+      <c r="G36" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1776</v>
       </c>
       <c r="I36" s="4"/>
       <c r="L36" s="16" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" s="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -7984,8 +8151,12 @@
       <c r="F37" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="11"/>
+      <c r="G37" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1770</v>
+      </c>
       <c r="I37" s="11"/>
       <c r="L37" s="16" t="s">
         <v>1145</v>
@@ -8010,8 +8181,12 @@
       <c r="F38" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="4"/>
+      <c r="G38" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1774</v>
+      </c>
       <c r="I38" s="4"/>
       <c r="L38" s="16" t="s">
         <v>1146</v>
@@ -8036,8 +8211,12 @@
       <c r="F39" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="4"/>
+      <c r="G39" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1770</v>
+      </c>
       <c r="I39" s="4"/>
       <c r="L39" s="16" t="s">
         <v>1147</v>
@@ -8088,8 +8267,12 @@
       <c r="F41" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="4"/>
+      <c r="G41" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1770</v>
+      </c>
       <c r="I41" s="4"/>
       <c r="L41" s="16" t="s">
         <v>1149</v>
@@ -8114,8 +8297,12 @@
       <c r="F42" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="4"/>
+      <c r="G42" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1770</v>
+      </c>
       <c r="I42" s="4"/>
       <c r="L42" s="16" t="s">
         <v>1150</v>
@@ -8140,8 +8327,12 @@
       <c r="F43" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="4"/>
+      <c r="G43" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1772</v>
+      </c>
       <c r="I43" s="4"/>
       <c r="L43" s="16" t="s">
         <v>1151</v>
@@ -8166,14 +8357,18 @@
       <c r="F44" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="4"/>
+      <c r="G44" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1774</v>
+      </c>
       <c r="I44" s="4"/>
       <c r="L44" s="16" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" s="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -8192,8 +8387,12 @@
       <c r="F45" s="13" t="s">
         <v>1103</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="11"/>
+      <c r="G45" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1774</v>
+      </c>
       <c r="I45" s="11"/>
       <c r="L45" s="16" t="s">
         <v>1153</v>
@@ -8218,8 +8417,12 @@
       <c r="F46" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="4"/>
+      <c r="G46" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1776</v>
+      </c>
       <c r="I46" s="4"/>
       <c r="L46" s="16" t="s">
         <v>1154</v>
@@ -8244,14 +8447,18 @@
       <c r="F47" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="4"/>
+      <c r="G47" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1772</v>
+      </c>
       <c r="I47" s="4"/>
       <c r="L47" s="16" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" s="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -8270,8 +8477,12 @@
       <c r="F48" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="11"/>
+      <c r="G48" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1770</v>
+      </c>
       <c r="I48" s="11"/>
       <c r="L48" s="16" t="s">
         <v>1156</v>
@@ -8296,8 +8507,12 @@
       <c r="F49" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="4"/>
+      <c r="G49" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1770</v>
+      </c>
       <c r="I49" s="4"/>
       <c r="L49" s="16" t="s">
         <v>1157</v>
@@ -8322,8 +8537,12 @@
       <c r="F50" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="4"/>
+      <c r="G50" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1774</v>
+      </c>
       <c r="I50" s="4"/>
       <c r="L50" s="16" t="s">
         <v>1158</v>
@@ -8348,8 +8567,12 @@
       <c r="F51" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="4"/>
+      <c r="G51" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1770</v>
+      </c>
       <c r="I51" s="4"/>
       <c r="L51" s="16" t="s">
         <v>1159</v>
@@ -8374,8 +8597,12 @@
       <c r="F52" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="4"/>
+      <c r="G52" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1774</v>
+      </c>
       <c r="I52" s="4"/>
       <c r="L52" s="16" t="s">
         <v>1160</v>
@@ -8400,8 +8627,12 @@
       <c r="F53" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="4"/>
+      <c r="G53" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1770</v>
+      </c>
       <c r="I53" s="4"/>
       <c r="L53" s="16" t="s">
         <v>1161</v>
@@ -8452,8 +8683,12 @@
       <c r="F55" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="4"/>
+      <c r="G55" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1770</v>
+      </c>
       <c r="I55" s="4"/>
       <c r="L55" s="16" t="s">
         <v>1163</v>
@@ -8504,8 +8739,12 @@
       <c r="F57" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G57" s="6"/>
-      <c r="H57" s="4"/>
+      <c r="G57" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1770</v>
+      </c>
       <c r="I57" s="4"/>
       <c r="L57" s="16" t="s">
         <v>1165</v>
@@ -8530,8 +8769,12 @@
       <c r="F58" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G58" s="6"/>
-      <c r="H58" s="4"/>
+      <c r="G58" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1770</v>
+      </c>
       <c r="I58" s="4"/>
       <c r="L58" s="16" t="s">
         <v>1166</v>
@@ -8556,8 +8799,12 @@
       <c r="F59" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="4"/>
+      <c r="G59" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1770</v>
+      </c>
       <c r="I59" s="4"/>
       <c r="L59" s="16" t="s">
         <v>1167</v>
@@ -8582,8 +8829,12 @@
       <c r="F60" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G60" s="6"/>
-      <c r="H60" s="4"/>
+      <c r="G60" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1776</v>
+      </c>
       <c r="I60" s="4"/>
       <c r="L60" s="16" t="s">
         <v>1168</v>
@@ -8608,8 +8859,12 @@
       <c r="F61" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="4"/>
+      <c r="G61" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1772</v>
+      </c>
       <c r="I61" s="4"/>
       <c r="L61" s="16" t="s">
         <v>1169</v>
@@ -8634,14 +8889,18 @@
       <c r="F62" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G62" s="6"/>
-      <c r="H62" s="4"/>
+      <c r="G62" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1774</v>
+      </c>
       <c r="I62" s="4"/>
       <c r="L62" s="16" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="63" s="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>62</v>
       </c>
@@ -8686,8 +8945,12 @@
       <c r="F64" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="4"/>
+      <c r="G64" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1770</v>
+      </c>
       <c r="I64" s="4"/>
       <c r="L64" s="16" t="s">
         <v>1172</v>
@@ -8712,8 +8975,12 @@
       <c r="F65" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="4"/>
+      <c r="G65" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1770</v>
+      </c>
       <c r="I65" s="4"/>
       <c r="L65" s="16" t="s">
         <v>1173</v>
@@ -8738,8 +9005,12 @@
       <c r="F66" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="4"/>
+      <c r="G66" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1774</v>
+      </c>
       <c r="I66" s="4"/>
       <c r="L66" s="16" t="s">
         <v>1174</v>
@@ -8764,8 +9035,12 @@
       <c r="F67" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="4"/>
+      <c r="G67" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1774</v>
+      </c>
       <c r="I67" s="4"/>
       <c r="L67" s="16" t="s">
         <v>1175</v>
@@ -8790,8 +9065,12 @@
       <c r="F68" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="4"/>
+      <c r="G68" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1770</v>
+      </c>
       <c r="I68" s="4"/>
       <c r="L68" s="16" t="s">
         <v>1176</v>
@@ -8816,8 +9095,12 @@
       <c r="F69" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="G69" s="6"/>
-      <c r="H69" s="4"/>
+      <c r="G69" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1774</v>
+      </c>
       <c r="I69" s="4"/>
       <c r="L69" s="16" t="s">
         <v>1177</v>
@@ -8842,8 +9125,12 @@
       <c r="F70" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G70" s="6"/>
-      <c r="H70" s="4"/>
+      <c r="G70" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1770</v>
+      </c>
       <c r="I70" s="4"/>
       <c r="L70" s="16" t="s">
         <v>1178</v>
@@ -8868,8 +9155,12 @@
       <c r="F71" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G71" s="6"/>
-      <c r="H71" s="4"/>
+      <c r="G71" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1776</v>
+      </c>
       <c r="I71" s="4"/>
       <c r="L71" s="16" t="s">
         <v>1179</v>
@@ -8894,8 +9185,12 @@
       <c r="F72" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="G72" s="6"/>
-      <c r="H72" s="4"/>
+      <c r="G72" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1770</v>
+      </c>
       <c r="I72" s="4"/>
       <c r="L72" s="16" t="s">
         <v>1180</v>
@@ -8920,8 +9215,12 @@
       <c r="F73" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G73" s="6"/>
-      <c r="H73" s="4"/>
+      <c r="G73" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1770</v>
+      </c>
       <c r="I73" s="4"/>
       <c r="L73" s="16" t="s">
         <v>1181</v>
@@ -8946,14 +9245,18 @@
       <c r="F74" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="G74" s="6"/>
-      <c r="H74" s="4"/>
+      <c r="G74" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1770</v>
+      </c>
       <c r="I74" s="4"/>
       <c r="L74" s="16" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="75" s="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>74</v>
       </c>
@@ -8998,8 +9301,12 @@
       <c r="F76" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="G76" s="6"/>
-      <c r="H76" s="4"/>
+      <c r="G76" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1772</v>
+      </c>
       <c r="I76" s="4"/>
       <c r="L76" s="17" t="s">
         <v>1184</v>
@@ -9050,8 +9357,12 @@
       <c r="F78" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G78" s="6"/>
-      <c r="H78" s="4"/>
+      <c r="G78" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1770</v>
+      </c>
       <c r="I78" s="4"/>
       <c r="L78" s="16" t="s">
         <v>1186</v>
@@ -9076,8 +9387,12 @@
       <c r="F79" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G79" s="6"/>
-      <c r="H79" s="4"/>
+      <c r="G79" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1772</v>
+      </c>
       <c r="I79" s="4"/>
       <c r="L79" s="16" t="s">
         <v>1187</v>
@@ -9102,8 +9417,12 @@
       <c r="F80" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="G80" s="6"/>
-      <c r="H80" s="4"/>
+      <c r="G80" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1776</v>
+      </c>
       <c r="I80" s="4"/>
       <c r="L80" s="16" t="s">
         <v>1188</v>
@@ -9128,8 +9447,12 @@
       <c r="F81" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="G81" s="6"/>
-      <c r="H81" s="4"/>
+      <c r="G81" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1774</v>
+      </c>
       <c r="I81" s="4"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -9151,8 +9474,12 @@
       <c r="F82" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="G82" s="6"/>
-      <c r="H82" s="4"/>
+      <c r="G82" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1776</v>
+      </c>
       <c r="I82" s="4"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -9174,8 +9501,12 @@
       <c r="F83" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="G83" s="6"/>
-      <c r="H83" s="4"/>
+      <c r="G83" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1770</v>
+      </c>
       <c r="I83" s="4"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -9220,8 +9551,12 @@
       <c r="F85" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="G85" s="6"/>
-      <c r="H85" s="4"/>
+      <c r="G85" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1770</v>
+      </c>
       <c r="I85" s="4"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -9243,8 +9578,12 @@
       <c r="F86" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="G86" s="6"/>
-      <c r="H86" s="4"/>
+      <c r="G86" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1770</v>
+      </c>
       <c r="I86" s="4"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -9266,8 +9605,12 @@
       <c r="F87" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="G87" s="6"/>
-      <c r="H87" s="4"/>
+      <c r="G87" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1776</v>
+      </c>
       <c r="I87" s="4"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -9289,8 +9632,12 @@
       <c r="F88" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="G88" s="6"/>
-      <c r="H88" s="4"/>
+      <c r="G88" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1770</v>
+      </c>
       <c r="I88" s="4"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -9312,8 +9659,12 @@
       <c r="F89" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="G89" s="6"/>
-      <c r="H89" s="4"/>
+      <c r="G89" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1772</v>
+      </c>
       <c r="I89" s="4"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -9339,7 +9690,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="91" s="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <v>90</v>
       </c>
@@ -9358,8 +9709,12 @@
       <c r="F91" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="G91" s="13"/>
-      <c r="H91" s="11"/>
+      <c r="G91" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1770</v>
+      </c>
       <c r="I91" s="11"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -9381,8 +9736,12 @@
       <c r="F92" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="G92" s="6"/>
-      <c r="H92" s="4"/>
+      <c r="G92" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1770</v>
+      </c>
       <c r="I92" s="4"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -9404,8 +9763,12 @@
       <c r="F93" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="G93" s="6"/>
-      <c r="H93" s="4"/>
+      <c r="G93" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1776</v>
+      </c>
       <c r="I93" s="4"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -9427,8 +9790,12 @@
       <c r="F94" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="G94" s="6"/>
-      <c r="H94" s="4"/>
+      <c r="G94" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1770</v>
+      </c>
       <c r="I94" s="4"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -9450,8 +9817,12 @@
       <c r="F95" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="G95" s="6"/>
-      <c r="H95" s="4"/>
+      <c r="G95" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1772</v>
+      </c>
       <c r="I95" s="4"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -9473,8 +9844,12 @@
       <c r="F96" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="G96" s="6"/>
-      <c r="H96" s="4"/>
+      <c r="G96" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1770</v>
+      </c>
       <c r="I96" s="4"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -9496,8 +9871,12 @@
       <c r="F97" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="G97" s="6"/>
-      <c r="H97" s="4"/>
+      <c r="G97" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1770</v>
+      </c>
       <c r="I97" s="4"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -9519,11 +9898,15 @@
       <c r="F98" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="G98" s="6"/>
-      <c r="H98" s="4"/>
+      <c r="G98" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1774</v>
+      </c>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="99" s="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
         <v>98</v>
       </c>
@@ -9565,8 +9948,12 @@
       <c r="F100" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="G100" s="6"/>
-      <c r="H100" s="4"/>
+      <c r="G100" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1770</v>
+      </c>
       <c r="I100" s="4"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -9588,8 +9975,12 @@
       <c r="F101" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="G101" s="6"/>
-      <c r="H101" s="4"/>
+      <c r="G101" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1772</v>
+      </c>
       <c r="I101" s="4"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -9611,8 +10002,12 @@
       <c r="F102" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="G102" s="6"/>
-      <c r="H102" s="4"/>
+      <c r="G102" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1770</v>
+      </c>
       <c r="I102" s="4"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -9634,8 +10029,12 @@
       <c r="F103" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="G103" s="6"/>
-      <c r="H103" s="4"/>
+      <c r="G103" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1770</v>
+      </c>
       <c r="I103" s="4"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -9657,8 +10056,12 @@
       <c r="F104" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="G104" s="6"/>
-      <c r="H104" s="4"/>
+      <c r="G104" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1770</v>
+      </c>
       <c r="I104" s="4"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -9680,8 +10083,12 @@
       <c r="F105" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="G105" s="6"/>
-      <c r="H105" s="4"/>
+      <c r="G105" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1776</v>
+      </c>
       <c r="I105" s="4"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -9703,8 +10110,12 @@
       <c r="F106" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="G106" s="6"/>
-      <c r="H106" s="4"/>
+      <c r="G106" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1770</v>
+      </c>
       <c r="I106" s="4"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -9726,8 +10137,12 @@
       <c r="F107" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="G107" s="6"/>
-      <c r="H107" s="4"/>
+      <c r="G107" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1774</v>
+      </c>
       <c r="I107" s="4"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -9749,8 +10164,12 @@
       <c r="F108" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="G108" s="6"/>
-      <c r="H108" s="4"/>
+      <c r="G108" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1776</v>
+      </c>
       <c r="I108" s="4"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -9772,8 +10191,12 @@
       <c r="F109" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="G109" s="6"/>
-      <c r="H109" s="4"/>
+      <c r="G109" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H109" t="s">
+        <v>1774</v>
+      </c>
       <c r="I109" s="4"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -9795,11 +10218,15 @@
       <c r="F110" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="G110" s="6"/>
-      <c r="H110" s="4"/>
+      <c r="G110" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1774</v>
+      </c>
       <c r="I110" s="4"/>
     </row>
-    <row r="111" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="111" s="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="10">
         <v>110</v>
       </c>
@@ -9841,8 +10268,12 @@
       <c r="F112" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="G112" s="6"/>
-      <c r="H112" s="4"/>
+      <c r="G112" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H112" t="s">
+        <v>1770</v>
+      </c>
       <c r="I112" s="4"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -9887,8 +10318,12 @@
       <c r="F114" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="G114" s="6"/>
-      <c r="H114" s="4"/>
+      <c r="G114" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1772</v>
+      </c>
       <c r="I114" s="4"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -9910,8 +10345,12 @@
       <c r="F115" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="G115" s="6"/>
-      <c r="H115" s="4"/>
+      <c r="G115" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1772</v>
+      </c>
       <c r="I115" s="4"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -9933,8 +10372,12 @@
       <c r="F116" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="G116" s="6"/>
-      <c r="H116" s="4"/>
+      <c r="G116" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1774</v>
+      </c>
       <c r="I116" s="4"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -9956,8 +10399,12 @@
       <c r="F117" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="G117" s="6"/>
-      <c r="H117" s="4"/>
+      <c r="G117" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H117" t="s">
+        <v>1770</v>
+      </c>
       <c r="I117" s="4"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -10000,8 +10447,12 @@
       <c r="F119" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="G119" s="6"/>
-      <c r="H119" s="4"/>
+      <c r="G119" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1774</v>
+      </c>
       <c r="I119" s="4"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -10023,8 +10474,12 @@
       <c r="F120" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="G120" s="6"/>
-      <c r="H120" s="4"/>
+      <c r="G120" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H120" t="s">
+        <v>1772</v>
+      </c>
       <c r="I120" s="4"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -10046,8 +10501,12 @@
       <c r="F121" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="G121" s="6"/>
-      <c r="H121" s="4"/>
+      <c r="G121" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H121" t="s">
+        <v>1770</v>
+      </c>
       <c r="I121" s="4"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -10069,8 +10528,12 @@
       <c r="F122" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="G122" s="6"/>
-      <c r="H122" s="4"/>
+      <c r="G122" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H122" t="s">
+        <v>1774</v>
+      </c>
       <c r="I122" s="4"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -10092,8 +10555,12 @@
       <c r="F123" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="G123" s="6"/>
-      <c r="H123" s="4"/>
+      <c r="G123" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H123" t="s">
+        <v>1770</v>
+      </c>
       <c r="I123" s="4"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -10115,8 +10582,12 @@
       <c r="F124" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="G124" s="6"/>
-      <c r="H124" s="4"/>
+      <c r="G124" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H124" t="s">
+        <v>1772</v>
+      </c>
       <c r="I124" s="4"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -10161,8 +10632,12 @@
       <c r="F126" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="G126" s="6"/>
-      <c r="H126" s="4"/>
+      <c r="G126" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H126" t="s">
+        <v>1774</v>
+      </c>
       <c r="I126" s="4"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -10184,8 +10659,12 @@
       <c r="F127" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="G127" s="6"/>
-      <c r="H127" s="4"/>
+      <c r="G127" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1770</v>
+      </c>
       <c r="I127" s="4"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -10207,8 +10686,12 @@
       <c r="F128" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="G128" s="6"/>
-      <c r="H128" s="4"/>
+      <c r="G128" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1770</v>
+      </c>
       <c r="I128" s="4"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -10230,11 +10713,11 @@
       <c r="F129" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="G129" s="6" t="s">
-        <v>1108</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>1764</v>
+      <c r="G129" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1776</v>
       </c>
       <c r="I129" s="4"/>
     </row>
@@ -10257,8 +10740,12 @@
       <c r="F130" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="G130" s="6"/>
-      <c r="H130" s="4"/>
+      <c r="G130" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1770</v>
+      </c>
       <c r="I130" s="4"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -10280,8 +10767,12 @@
       <c r="F131" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="G131" s="6"/>
-      <c r="H131" s="4"/>
+      <c r="G131" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H131" t="s">
+        <v>1772</v>
+      </c>
       <c r="I131" s="4"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -10326,8 +10817,12 @@
       <c r="F133" s="7" t="s">
         <v>1092</v>
       </c>
-      <c r="G133" s="7"/>
-      <c r="H133" s="4"/>
+      <c r="G133" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1772</v>
+      </c>
       <c r="I133" s="4"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -10349,8 +10844,12 @@
       <c r="F134" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="G134" s="6"/>
-      <c r="H134" s="4"/>
+      <c r="G134" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1772</v>
+      </c>
       <c r="I134" s="4"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -10372,8 +10871,12 @@
       <c r="F135" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="G135" s="6"/>
-      <c r="H135" s="4"/>
+      <c r="G135" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1774</v>
+      </c>
       <c r="I135" s="4"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -10395,8 +10898,12 @@
       <c r="F136" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="G136" s="6"/>
-      <c r="H136" s="4"/>
+      <c r="G136" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1770</v>
+      </c>
       <c r="I136" s="4"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -10418,8 +10925,12 @@
       <c r="F137" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="G137" s="6"/>
-      <c r="H137" s="4"/>
+      <c r="G137" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1770</v>
+      </c>
       <c r="I137" s="4"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -10441,8 +10952,12 @@
       <c r="F138" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="G138" s="6"/>
-      <c r="H138" s="4"/>
+      <c r="G138" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H138" t="s">
+        <v>1770</v>
+      </c>
       <c r="I138" s="4"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -10464,8 +10979,12 @@
       <c r="F139" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="G139" s="6"/>
-      <c r="H139" s="4"/>
+      <c r="G139" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H139" t="s">
+        <v>1770</v>
+      </c>
       <c r="I139" s="4"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -10487,8 +11006,12 @@
       <c r="F140" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="G140" s="6"/>
-      <c r="H140" s="4"/>
+      <c r="G140" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H140" t="s">
+        <v>1776</v>
+      </c>
       <c r="I140" s="4"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -10510,8 +11033,12 @@
       <c r="F141" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="G141" s="6"/>
-      <c r="H141" s="4"/>
+      <c r="G141" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1772</v>
+      </c>
       <c r="I141" s="4"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -10533,8 +11060,12 @@
       <c r="F142" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="G142" s="6"/>
-      <c r="H142" s="4"/>
+      <c r="G142" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1770</v>
+      </c>
       <c r="I142" s="4"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -10556,8 +11087,12 @@
       <c r="F143" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="G143" s="6"/>
-      <c r="H143" s="4"/>
+      <c r="G143" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1774</v>
+      </c>
       <c r="I143" s="4"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -10579,8 +11114,12 @@
       <c r="F144" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="G144" s="6"/>
-      <c r="H144" s="4"/>
+      <c r="G144" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H144" t="s">
+        <v>1770</v>
+      </c>
       <c r="I144" s="4"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -10602,8 +11141,12 @@
       <c r="F145" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="G145" s="6"/>
-      <c r="H145" s="4"/>
+      <c r="G145" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1770</v>
+      </c>
       <c r="I145" s="4"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -10625,8 +11168,12 @@
       <c r="F146" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="G146" s="6"/>
-      <c r="H146" s="4"/>
+      <c r="G146" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1774</v>
+      </c>
       <c r="I146" s="4"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -10648,8 +11195,12 @@
       <c r="F147" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="G147" s="6"/>
-      <c r="H147" s="4"/>
+      <c r="G147" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1774</v>
+      </c>
       <c r="I147" s="4"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -10671,8 +11222,12 @@
       <c r="F148" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="G148" s="6"/>
-      <c r="H148" s="4"/>
+      <c r="G148" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1770</v>
+      </c>
       <c r="I148" s="4"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -10694,8 +11249,12 @@
       <c r="F149" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="G149" s="6"/>
-      <c r="H149" s="4"/>
+      <c r="G149" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1770</v>
+      </c>
       <c r="I149" s="4"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -10717,8 +11276,12 @@
       <c r="F150" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="G150" s="6"/>
-      <c r="H150" s="4"/>
+      <c r="G150" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1774</v>
+      </c>
       <c r="I150" s="4"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -10740,8 +11303,12 @@
       <c r="F151" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="G151" s="6"/>
-      <c r="H151" s="4"/>
+      <c r="G151" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H151" t="s">
+        <v>1770</v>
+      </c>
       <c r="I151" s="4"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -10763,11 +11330,11 @@
       <c r="F152" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="G152" s="6" t="s">
-        <v>1108</v>
-      </c>
-      <c r="H152" s="4" t="s">
-        <v>1764</v>
+      <c r="G152" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1776</v>
       </c>
       <c r="I152" s="4"/>
     </row>
@@ -10790,11 +11357,15 @@
       <c r="F153" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="G153" s="6"/>
-      <c r="H153" s="4"/>
+      <c r="G153" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1774</v>
+      </c>
       <c r="I153" s="4"/>
     </row>
-    <row r="154" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="154" s="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
         <v>153</v>
       </c>
@@ -10836,8 +11407,12 @@
       <c r="F155" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="G155" s="6"/>
-      <c r="H155" s="4"/>
+      <c r="G155" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1772</v>
+      </c>
       <c r="I155" s="4"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -10859,8 +11434,12 @@
       <c r="F156" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="G156" s="6"/>
-      <c r="H156" s="4"/>
+      <c r="G156" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H156" t="s">
+        <v>1770</v>
+      </c>
       <c r="I156" s="4"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -10882,8 +11461,12 @@
       <c r="F157" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="G157" s="6"/>
-      <c r="H157" s="4"/>
+      <c r="G157" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1774</v>
+      </c>
       <c r="I157" s="4"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -10905,8 +11488,12 @@
       <c r="F158" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="G158" s="6"/>
-      <c r="H158" s="4"/>
+      <c r="G158" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1774</v>
+      </c>
       <c r="I158" s="4"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -10928,8 +11515,12 @@
       <c r="F159" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="G159" s="6"/>
-      <c r="H159" s="4"/>
+      <c r="G159" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1776</v>
+      </c>
       <c r="I159" s="4"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -10951,11 +11542,15 @@
       <c r="F160" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="G160" s="6"/>
-      <c r="H160" s="4"/>
+      <c r="G160" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1770</v>
+      </c>
       <c r="I160" s="4"/>
     </row>
-    <row r="161" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="161" s="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="10">
         <v>160</v>
       </c>
@@ -10997,8 +11592,12 @@
       <c r="F162" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="G162" s="6"/>
-      <c r="H162" s="4"/>
+      <c r="G162" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1770</v>
+      </c>
       <c r="I162" s="4"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -11020,8 +11619,12 @@
       <c r="F163" s="7">
         <v>15270737284</v>
       </c>
-      <c r="G163" s="7"/>
-      <c r="H163" s="4"/>
+      <c r="G163" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1770</v>
+      </c>
       <c r="I163" s="4"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -11043,8 +11646,12 @@
       <c r="F164" s="7">
         <v>15007089320</v>
       </c>
-      <c r="G164" s="7"/>
-      <c r="H164" s="4"/>
+      <c r="G164" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1770</v>
+      </c>
       <c r="I164" s="4"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -11066,8 +11673,12 @@
       <c r="F165" s="7">
         <v>15979827978</v>
       </c>
-      <c r="G165" s="7"/>
-      <c r="H165" s="4"/>
+      <c r="G165" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1770</v>
+      </c>
       <c r="I165" s="4"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -11089,8 +11700,12 @@
       <c r="F166" s="7">
         <v>13970744326</v>
       </c>
-      <c r="G166" s="7"/>
-      <c r="H166" s="4"/>
+      <c r="G166" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1776</v>
+      </c>
       <c r="I166" s="4"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -11112,8 +11727,12 @@
       <c r="F167" s="7">
         <v>15579746821</v>
       </c>
-      <c r="G167" s="7"/>
-      <c r="H167" s="4"/>
+      <c r="G167" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H167" t="s">
+        <v>1770</v>
+      </c>
       <c r="I167" s="4"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -11135,8 +11754,12 @@
       <c r="F168" s="7">
         <v>8316497</v>
       </c>
-      <c r="G168" s="7"/>
-      <c r="H168" s="4"/>
+      <c r="G168" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1770</v>
+      </c>
       <c r="I168" s="4"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -11158,11 +11781,15 @@
       <c r="F169" s="7">
         <v>13979739998</v>
       </c>
-      <c r="G169" s="7"/>
-      <c r="H169" s="4"/>
+      <c r="G169" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1774</v>
+      </c>
       <c r="I169" s="4"/>
     </row>
-    <row r="170" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="170" s="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="10">
         <v>169</v>
       </c>
@@ -11204,8 +11831,12 @@
       <c r="F171" s="7">
         <v>8316059</v>
       </c>
-      <c r="G171" s="7"/>
-      <c r="H171" s="4"/>
+      <c r="G171" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1772</v>
+      </c>
       <c r="I171" s="4"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -11227,8 +11858,12 @@
       <c r="F172" s="7">
         <v>13970785799</v>
       </c>
-      <c r="G172" s="7"/>
-      <c r="H172" s="4"/>
+      <c r="G172" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H172" t="s">
+        <v>1776</v>
+      </c>
       <c r="I172" s="4"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -11250,8 +11885,12 @@
       <c r="F173" s="7">
         <v>15727771818</v>
       </c>
-      <c r="G173" s="7"/>
-      <c r="H173" s="4"/>
+      <c r="G173" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1774</v>
+      </c>
       <c r="I173" s="4"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -11273,8 +11912,12 @@
       <c r="F174" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="G174" s="7"/>
-      <c r="H174" s="4"/>
+      <c r="G174" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1770</v>
+      </c>
       <c r="I174" s="4"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -11296,8 +11939,12 @@
       <c r="F175" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="G175" s="7"/>
-      <c r="H175" s="4"/>
+      <c r="G175" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1772</v>
+      </c>
       <c r="I175" s="4"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -11319,8 +11966,12 @@
       <c r="F176" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="G176" s="7"/>
-      <c r="H176" s="4"/>
+      <c r="G176" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1770</v>
+      </c>
       <c r="I176" s="4"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -11342,8 +11993,12 @@
       <c r="F177" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="G177" s="7"/>
-      <c r="H177" s="4"/>
+      <c r="G177" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1770</v>
+      </c>
       <c r="I177" s="4"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -11365,8 +12020,12 @@
       <c r="F178" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="G178" s="7"/>
-      <c r="H178" s="4"/>
+      <c r="G178" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H178" t="s">
+        <v>1770</v>
+      </c>
       <c r="I178" s="4"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -11388,8 +12047,12 @@
       <c r="F179" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="G179" s="7"/>
-      <c r="H179" s="4"/>
+      <c r="G179" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H179" t="s">
+        <v>1774</v>
+      </c>
       <c r="I179" s="4"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -11411,8 +12074,12 @@
       <c r="F180" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="G180" s="7"/>
-      <c r="H180" s="4"/>
+      <c r="G180" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1774</v>
+      </c>
       <c r="I180" s="4"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -11434,8 +12101,12 @@
       <c r="F181" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="G181" s="7"/>
-      <c r="H181" s="4"/>
+      <c r="G181" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1770</v>
+      </c>
       <c r="I181" s="4"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -11457,11 +12128,15 @@
       <c r="F182" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="G182" s="7"/>
-      <c r="H182" s="4"/>
+      <c r="G182" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1774</v>
+      </c>
       <c r="I182" s="4"/>
     </row>
-    <row r="183" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="183" s="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="10">
         <v>182</v>
       </c>
@@ -11503,8 +12178,12 @@
       <c r="F184" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="G184" s="7"/>
-      <c r="H184" s="4"/>
+      <c r="G184" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H184" t="s">
+        <v>1770</v>
+      </c>
       <c r="I184" s="4"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -11526,8 +12205,12 @@
       <c r="F185" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="G185" s="7"/>
-      <c r="H185" s="4"/>
+      <c r="G185" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1770</v>
+      </c>
       <c r="I185" s="4"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -11549,8 +12232,12 @@
       <c r="F186" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="G186" s="7"/>
-      <c r="H186" s="4"/>
+      <c r="G186" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1770</v>
+      </c>
       <c r="I186" s="4"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -11572,8 +12259,12 @@
       <c r="F187" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="G187" s="7"/>
-      <c r="H187" s="4"/>
+      <c r="G187" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H187" t="s">
+        <v>1770</v>
+      </c>
       <c r="I187" s="4"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -11618,8 +12309,12 @@
       <c r="F189" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="G189" s="7"/>
-      <c r="H189" s="4"/>
+      <c r="G189" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1770</v>
+      </c>
       <c r="I189" s="4"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -11641,8 +12336,12 @@
       <c r="F190" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="G190" s="7"/>
-      <c r="H190" s="4"/>
+      <c r="G190" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1772</v>
+      </c>
       <c r="I190" s="4"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -11664,8 +12363,12 @@
       <c r="F191" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="G191" s="7"/>
-      <c r="H191" s="4"/>
+      <c r="G191" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H191" t="s">
+        <v>1770</v>
+      </c>
       <c r="I191" s="4"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -11687,8 +12390,12 @@
       <c r="F192" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="G192" s="7"/>
-      <c r="H192" s="4"/>
+      <c r="G192" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H192" t="s">
+        <v>1772</v>
+      </c>
       <c r="I192" s="4"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -11710,8 +12417,12 @@
       <c r="F193" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="G193" s="7"/>
-      <c r="H193" s="4"/>
+      <c r="G193" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H193" t="s">
+        <v>1772</v>
+      </c>
       <c r="I193" s="4"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -11733,8 +12444,12 @@
       <c r="F194" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="G194" s="7"/>
-      <c r="H194" s="4"/>
+      <c r="G194" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H194" t="s">
+        <v>1774</v>
+      </c>
       <c r="I194" s="4"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -11756,8 +12471,12 @@
       <c r="F195" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="G195" s="7"/>
-      <c r="H195" s="4"/>
+      <c r="G195" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H195" t="s">
+        <v>1776</v>
+      </c>
       <c r="I195" s="4"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -11779,8 +12498,12 @@
       <c r="F196" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="G196" s="7"/>
-      <c r="H196" s="4"/>
+      <c r="G196" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H196" t="s">
+        <v>1776</v>
+      </c>
       <c r="I196" s="4"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -11802,8 +12525,12 @@
       <c r="F197" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="G197" s="7"/>
-      <c r="H197" s="4"/>
+      <c r="G197" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1770</v>
+      </c>
       <c r="I197" s="4"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -11825,8 +12552,12 @@
       <c r="F198" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="G198" s="7"/>
-      <c r="H198" s="4"/>
+      <c r="G198" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H198" t="s">
+        <v>1772</v>
+      </c>
       <c r="I198" s="4"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -11848,8 +12579,12 @@
       <c r="F199" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="G199" s="7"/>
-      <c r="H199" s="4"/>
+      <c r="G199" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H199" t="s">
+        <v>1770</v>
+      </c>
       <c r="I199" s="4"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -11871,8 +12606,12 @@
       <c r="F200" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="G200" s="7"/>
-      <c r="H200" s="4"/>
+      <c r="G200" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H200" t="s">
+        <v>1774</v>
+      </c>
       <c r="I200" s="4"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -11917,8 +12656,12 @@
       <c r="F202" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="G202" s="7"/>
-      <c r="H202" s="4"/>
+      <c r="G202" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H202" t="s">
+        <v>1774</v>
+      </c>
       <c r="I202" s="4"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -11940,8 +12683,12 @@
       <c r="F203" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="G203" s="7"/>
-      <c r="H203" s="4"/>
+      <c r="G203" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H203" t="s">
+        <v>1770</v>
+      </c>
       <c r="I203" s="4"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -11963,8 +12710,12 @@
       <c r="F204" s="7" t="s">
         <v>799</v>
       </c>
-      <c r="G204" s="7"/>
-      <c r="H204" s="4"/>
+      <c r="G204" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H204" t="s">
+        <v>1774</v>
+      </c>
       <c r="I204" s="4"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -11986,8 +12737,12 @@
       <c r="F205" s="7" t="s">
         <v>806</v>
       </c>
-      <c r="G205" s="7"/>
-      <c r="H205" s="4"/>
+      <c r="G205" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H205" t="s">
+        <v>1774</v>
+      </c>
       <c r="I205" s="4"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -12009,8 +12764,12 @@
       <c r="F206" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="G206" s="7"/>
-      <c r="H206" s="4"/>
+      <c r="G206" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H206" t="s">
+        <v>1770</v>
+      </c>
       <c r="I206" s="4"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -12032,11 +12791,11 @@
       <c r="F207" s="7" t="s">
         <v>811</v>
       </c>
-      <c r="G207" s="7" t="s">
-        <v>1108</v>
-      </c>
-      <c r="H207" s="4" t="s">
-        <v>1764</v>
+      <c r="G207" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H207" t="s">
+        <v>1776</v>
       </c>
       <c r="I207" s="4"/>
     </row>
@@ -12059,8 +12818,12 @@
       <c r="F208" s="7" t="s">
         <v>818</v>
       </c>
-      <c r="G208" s="7"/>
-      <c r="H208" s="4"/>
+      <c r="G208" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H208" t="s">
+        <v>1770</v>
+      </c>
       <c r="I208" s="4"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -12082,8 +12845,12 @@
       <c r="F209" s="7" t="s">
         <v>819</v>
       </c>
-      <c r="G209" s="7"/>
-      <c r="H209" s="4"/>
+      <c r="G209" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H209" t="s">
+        <v>1770</v>
+      </c>
       <c r="I209" s="4"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -12105,8 +12872,12 @@
       <c r="F210" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="G210" s="7"/>
-      <c r="H210" s="4"/>
+      <c r="G210" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H210" t="s">
+        <v>1770</v>
+      </c>
       <c r="I210" s="4"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -12128,8 +12899,12 @@
       <c r="F211" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="G211" s="7"/>
-      <c r="H211" s="4"/>
+      <c r="G211" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H211" t="s">
+        <v>1770</v>
+      </c>
       <c r="I211" s="4"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -12151,8 +12926,12 @@
       <c r="F212" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="G212" s="7"/>
-      <c r="H212" s="4"/>
+      <c r="G212" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H212" t="s">
+        <v>1770</v>
+      </c>
       <c r="I212" s="4"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -12174,8 +12953,12 @@
       <c r="F213" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="G213" s="7"/>
-      <c r="H213" s="4"/>
+      <c r="G213" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H213" t="s">
+        <v>1770</v>
+      </c>
       <c r="I213" s="4"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -12197,8 +12980,12 @@
       <c r="F214" s="7" t="s">
         <v>842</v>
       </c>
-      <c r="G214" s="7"/>
-      <c r="H214" s="4"/>
+      <c r="G214" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H214" t="s">
+        <v>1772</v>
+      </c>
       <c r="I214" s="4"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -12220,8 +13007,12 @@
       <c r="F215" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="G215" s="7"/>
-      <c r="H215" s="4"/>
+      <c r="G215" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H215" t="s">
+        <v>1770</v>
+      </c>
       <c r="I215" s="4"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -12243,8 +13034,12 @@
       <c r="F216" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="G216" s="7"/>
-      <c r="H216" s="4"/>
+      <c r="G216" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1770</v>
+      </c>
       <c r="I216" s="4"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -12266,8 +13061,12 @@
       <c r="F217" s="7" t="s">
         <v>851</v>
       </c>
-      <c r="G217" s="7"/>
-      <c r="H217" s="4"/>
+      <c r="G217" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H217" t="s">
+        <v>1770</v>
+      </c>
       <c r="I217" s="4"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -12289,8 +13088,12 @@
       <c r="F218" s="7" t="s">
         <v>858</v>
       </c>
-      <c r="G218" s="7"/>
-      <c r="H218" s="4"/>
+      <c r="G218" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1772</v>
+      </c>
       <c r="I218" s="4"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -12312,11 +13115,15 @@
       <c r="F219" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="G219" s="7"/>
-      <c r="H219" s="4"/>
+      <c r="G219" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H219" t="s">
+        <v>1770</v>
+      </c>
       <c r="I219" s="4"/>
     </row>
-    <row r="220" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="220" s="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="10">
         <v>219</v>
       </c>
@@ -12404,8 +13211,12 @@
       <c r="F223" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="G223" s="7"/>
-      <c r="H223" s="4"/>
+      <c r="G223" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H223" t="s">
+        <v>1774</v>
+      </c>
       <c r="I223" s="4"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -12427,8 +13238,12 @@
       <c r="F224" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="G224" s="7"/>
-      <c r="H224" s="4"/>
+      <c r="G224" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H224" t="s">
+        <v>1770</v>
+      </c>
       <c r="I224" s="4"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -12450,8 +13265,12 @@
       <c r="F225" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="G225" s="7"/>
-      <c r="H225" s="4"/>
+      <c r="G225" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H225" t="s">
+        <v>1770</v>
+      </c>
       <c r="I225" s="4"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -12473,8 +13292,12 @@
       <c r="F226" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G226" s="7"/>
-      <c r="H226" s="4"/>
+      <c r="G226" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H226" t="s">
+        <v>1772</v>
+      </c>
       <c r="I226" s="4"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -12496,8 +13319,12 @@
       <c r="F227" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="G227" s="7"/>
-      <c r="H227" s="4"/>
+      <c r="G227" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H227" t="s">
+        <v>1774</v>
+      </c>
       <c r="I227" s="4"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -12519,8 +13346,12 @@
       <c r="F228" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="G228" s="7"/>
-      <c r="H228" s="4"/>
+      <c r="G228" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H228" t="s">
+        <v>1770</v>
+      </c>
       <c r="I228" s="4"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -12542,8 +13373,12 @@
       <c r="F229" s="7" t="s">
         <v>899</v>
       </c>
-      <c r="G229" s="7"/>
-      <c r="H229" s="4"/>
+      <c r="G229" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H229" t="s">
+        <v>1770</v>
+      </c>
       <c r="I229" s="4"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -12565,8 +13400,12 @@
       <c r="F230" s="7" t="s">
         <v>906</v>
       </c>
-      <c r="G230" s="7"/>
-      <c r="H230" s="4"/>
+      <c r="G230" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H230" t="s">
+        <v>1770</v>
+      </c>
       <c r="I230" s="4"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -12588,8 +13427,12 @@
       <c r="F231" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="G231" s="7"/>
-      <c r="H231" s="4"/>
+      <c r="G231" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H231" t="s">
+        <v>1774</v>
+      </c>
       <c r="I231" s="4"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -12611,8 +13454,12 @@
       <c r="F232" s="7" t="s">
         <v>914</v>
       </c>
-      <c r="G232" s="7"/>
-      <c r="H232" s="4"/>
+      <c r="G232" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H232" t="s">
+        <v>1770</v>
+      </c>
       <c r="I232" s="4"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -12634,8 +13481,12 @@
       <c r="F233" s="7" t="s">
         <v>915</v>
       </c>
-      <c r="G233" s="7"/>
-      <c r="H233" s="4"/>
+      <c r="G233" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H233" t="s">
+        <v>1776</v>
+      </c>
       <c r="I233" s="4"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -12680,8 +13531,12 @@
       <c r="F235" s="7" t="s">
         <v>923</v>
       </c>
-      <c r="G235" s="7"/>
-      <c r="H235" s="4"/>
+      <c r="G235" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H235" t="s">
+        <v>1770</v>
+      </c>
       <c r="I235" s="4"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -12703,8 +13558,12 @@
       <c r="F236" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="G236" s="7"/>
-      <c r="H236" s="4"/>
+      <c r="G236" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H236" t="s">
+        <v>1770</v>
+      </c>
       <c r="I236" s="4"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -12726,8 +13585,12 @@
       <c r="F237" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="G237" s="7"/>
-      <c r="H237" s="4"/>
+      <c r="G237" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H237" t="s">
+        <v>1776</v>
+      </c>
       <c r="I237" s="4"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -12749,8 +13612,12 @@
       <c r="F238" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="G238" s="7"/>
-      <c r="H238" s="4"/>
+      <c r="G238" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H238" t="s">
+        <v>1774</v>
+      </c>
       <c r="I238" s="4"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -12822,11 +13689,15 @@
       <c r="F241" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="G241" s="7"/>
-      <c r="H241" s="4"/>
+      <c r="G241" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H241" t="s">
+        <v>1770</v>
+      </c>
       <c r="I241" s="4"/>
     </row>
-    <row r="242" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="242" s="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="10">
         <v>241</v>
       </c>
@@ -12868,8 +13739,12 @@
       <c r="F243" s="7" t="s">
         <v>955</v>
       </c>
-      <c r="G243" s="7"/>
-      <c r="H243" s="4"/>
+      <c r="G243" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H243" t="s">
+        <v>1770</v>
+      </c>
       <c r="I243" s="4"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -12891,8 +13766,12 @@
       <c r="F244" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="G244" s="7"/>
-      <c r="H244" s="4"/>
+      <c r="G244" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H244" t="s">
+        <v>1770</v>
+      </c>
       <c r="I244" s="4"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -12937,8 +13816,12 @@
       <c r="F246" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="G246" s="7"/>
-      <c r="H246" s="4"/>
+      <c r="G246" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H246" t="s">
+        <v>1774</v>
+      </c>
       <c r="I246" s="4"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -12960,8 +13843,12 @@
       <c r="F247" s="7" t="s">
         <v>971</v>
       </c>
-      <c r="G247" s="7"/>
-      <c r="H247" s="4"/>
+      <c r="G247" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H247" t="s">
+        <v>1770</v>
+      </c>
       <c r="I247" s="4"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -12983,8 +13870,12 @@
       <c r="F248" s="7" t="s">
         <v>978</v>
       </c>
-      <c r="G248" s="7"/>
-      <c r="H248" s="4"/>
+      <c r="G248" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H248" t="s">
+        <v>1770</v>
+      </c>
       <c r="I248" s="4"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -13006,8 +13897,12 @@
       <c r="F249" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="G249" s="7"/>
-      <c r="H249" s="4"/>
+      <c r="G249" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H249" t="s">
+        <v>1770</v>
+      </c>
       <c r="I249" s="4"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -13029,11 +13924,11 @@
       <c r="F250" s="7" t="s">
         <v>986</v>
       </c>
-      <c r="G250" s="7" t="s">
-        <v>1108</v>
-      </c>
-      <c r="H250" s="4" t="s">
-        <v>1764</v>
+      <c r="G250" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H250" t="s">
+        <v>1776</v>
       </c>
       <c r="I250" s="4"/>
     </row>
@@ -13056,8 +13951,12 @@
       <c r="F251" s="7">
         <v>13767790607</v>
       </c>
-      <c r="G251" s="7"/>
-      <c r="H251" s="4"/>
+      <c r="G251" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H251" t="s">
+        <v>1772</v>
+      </c>
       <c r="I251" s="4"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -13079,8 +13978,12 @@
       <c r="F252" s="7" t="s">
         <v>987</v>
       </c>
-      <c r="G252" s="7"/>
-      <c r="H252" s="4"/>
+      <c r="G252" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H252" t="s">
+        <v>1772</v>
+      </c>
       <c r="I252" s="4"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -13102,8 +14005,12 @@
       <c r="F253" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="G253" s="7"/>
-      <c r="H253" s="4"/>
+      <c r="G253" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H253" t="s">
+        <v>1774</v>
+      </c>
       <c r="I253" s="4"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -13148,8 +14055,12 @@
       <c r="F255" s="7" t="s">
         <v>1002</v>
       </c>
-      <c r="G255" s="7"/>
-      <c r="H255" s="4"/>
+      <c r="G255" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H255" t="s">
+        <v>1772</v>
+      </c>
       <c r="I255" s="4"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -13171,8 +14082,12 @@
       <c r="F256" s="7" t="s">
         <v>1009</v>
       </c>
-      <c r="G256" s="7"/>
-      <c r="H256" s="4"/>
+      <c r="G256" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H256" t="s">
+        <v>1770</v>
+      </c>
       <c r="I256" s="4"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -13217,8 +14132,12 @@
       <c r="F258" s="7" t="s">
         <v>1017</v>
       </c>
-      <c r="G258" s="7"/>
-      <c r="H258" s="4"/>
+      <c r="G258" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H258" t="s">
+        <v>1770</v>
+      </c>
       <c r="I258" s="4"/>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -13240,8 +14159,12 @@
       <c r="F259" s="7" t="s">
         <v>1018</v>
       </c>
-      <c r="G259" s="7"/>
-      <c r="H259" s="4"/>
+      <c r="G259" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H259" t="s">
+        <v>1770</v>
+      </c>
       <c r="I259" s="4"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -13263,8 +14186,12 @@
       <c r="F260" s="7" t="s">
         <v>1025</v>
       </c>
-      <c r="G260" s="7"/>
-      <c r="H260" s="4"/>
+      <c r="G260" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H260" t="s">
+        <v>1770</v>
+      </c>
       <c r="I260" s="4"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -13286,8 +14213,12 @@
       <c r="F261" s="7" t="s">
         <v>1026</v>
       </c>
-      <c r="G261" s="7"/>
-      <c r="H261" s="4"/>
+      <c r="G261" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H261" t="s">
+        <v>1770</v>
+      </c>
       <c r="I261" s="4"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -13309,8 +14240,12 @@
       <c r="F262" s="7" t="s">
         <v>1033</v>
       </c>
-      <c r="G262" s="7"/>
-      <c r="H262" s="4"/>
+      <c r="G262" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H262" t="s">
+        <v>1770</v>
+      </c>
       <c r="I262" s="4"/>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -13332,8 +14267,12 @@
       <c r="F263" s="7" t="s">
         <v>1034</v>
       </c>
-      <c r="G263" s="7"/>
-      <c r="H263" s="4"/>
+      <c r="G263" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H263" t="s">
+        <v>1770</v>
+      </c>
       <c r="I263" s="4"/>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -13355,8 +14294,12 @@
       <c r="F264" s="7" t="s">
         <v>1041</v>
       </c>
-      <c r="G264" s="7"/>
-      <c r="H264" s="4"/>
+      <c r="G264" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H264" t="s">
+        <v>1774</v>
+      </c>
       <c r="I264" s="4"/>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -13378,8 +14321,12 @@
       <c r="F265" s="7" t="s">
         <v>1042</v>
       </c>
-      <c r="G265" s="7"/>
-      <c r="H265" s="4"/>
+      <c r="G265" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H265" t="s">
+        <v>1774</v>
+      </c>
       <c r="I265" s="4"/>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -13401,8 +14348,12 @@
       <c r="F266" s="7" t="s">
         <v>1049</v>
       </c>
-      <c r="G266" s="7"/>
-      <c r="H266" s="4"/>
+      <c r="G266" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H266" t="s">
+        <v>1770</v>
+      </c>
       <c r="I266" s="4"/>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -13424,8 +14375,12 @@
       <c r="F267" s="7" t="s">
         <v>1050</v>
       </c>
-      <c r="G267" s="7"/>
-      <c r="H267" s="4"/>
+      <c r="G267" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H267" t="s">
+        <v>1772</v>
+      </c>
       <c r="I267" s="4"/>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -13447,8 +14402,12 @@
       <c r="F268" s="7" t="s">
         <v>1057</v>
       </c>
-      <c r="G268" s="7"/>
-      <c r="H268" s="4"/>
+      <c r="G268" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H268" t="s">
+        <v>1770</v>
+      </c>
       <c r="I268" s="4"/>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -13470,8 +14429,12 @@
       <c r="F269" s="7" t="s">
         <v>1058</v>
       </c>
-      <c r="G269" s="7"/>
-      <c r="H269" s="4"/>
+      <c r="G269" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H269" t="s">
+        <v>1774</v>
+      </c>
       <c r="I269" s="4"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -13493,8 +14456,12 @@
       <c r="F270" s="7" t="s">
         <v>1065</v>
       </c>
-      <c r="G270" s="7"/>
-      <c r="H270" s="4"/>
+      <c r="G270" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H270" t="s">
+        <v>1776</v>
+      </c>
       <c r="I270" s="4"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -13516,8 +14483,12 @@
       <c r="F271" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="G271" s="7"/>
-      <c r="H271" s="4"/>
+      <c r="G271" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H271" t="s">
+        <v>1772</v>
+      </c>
       <c r="I271" s="4"/>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -13539,8 +14510,12 @@
       <c r="F272" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="G272" s="7"/>
-      <c r="H272" s="4"/>
+      <c r="G272" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H272" t="s">
+        <v>1770</v>
+      </c>
       <c r="I272" s="4"/>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -13562,8 +14537,12 @@
       <c r="F273" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="G273" s="7"/>
-      <c r="H273" s="4"/>
+      <c r="G273" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H273" t="s">
+        <v>1770</v>
+      </c>
       <c r="I273" s="4"/>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -13608,11 +14587,15 @@
       <c r="F275" s="7" t="s">
         <v>1085</v>
       </c>
-      <c r="G275" s="7"/>
-      <c r="H275" s="4"/>
+      <c r="G275" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H275" t="s">
+        <v>1770</v>
+      </c>
       <c r="I275" s="4"/>
     </row>
-    <row r="276" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="28.5" r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>1086</v>
       </c>
@@ -13631,20 +14614,24 @@
       <c r="F276" s="8" t="s">
         <v>1090</v>
       </c>
-      <c r="G276" s="8"/>
-      <c r="H276" s="4"/>
+      <c r="G276" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H276" t="s">
+        <v>1774</v>
+      </c>
       <c r="I276" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="1200" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="1200"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1975C7-93C0-4811-8C7D-EA51E468B182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1975C7-93C0-4811-8C7D-EA51E468B182}">
   <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -13653,8 +14640,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="14.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14536,12 +15523,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1788927-21BA-4429-B3B6-3173DC0F28F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1788927-21BA-4429-B3B6-3173DC0F28F5}">
   <dimension ref="A1:A125"/>
   <sheetViews>
     <sheetView topLeftCell="A116" workbookViewId="0">
@@ -15177,12 +16164,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EF7CB3-4B71-43F8-BA66-E6387E693357}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EF7CB3-4B71-43F8-BA66-E6387E693357}">
   <dimension ref="A1:A148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15933,12 +16920,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CB5500-9CC4-400E-AC69-B949ECE614B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CB5500-9CC4-400E-AC69-B949ECE614B9}">
   <dimension ref="A1:A302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17459,12 +18446,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17473,9 +18460,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" customWidth="true" width="20.21875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="23.77734375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="21.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -20040,7 +21027,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>